--- a/LF/TAS/Mozambique/niassa/mz_lf_tas1_3_resultat_fts_202011.xlsx
+++ b/LF/TAS/Mozambique/niassa/mz_lf_tas1_3_resultat_fts_202011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Mozambique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Mozambique\niassa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4697813E-7F66-4497-A7DA-553648FB22C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9334A40-CA2E-49FC-AF16-A2BA793EDE47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="217">
   <si>
     <t>form_title</t>
   </si>
@@ -1283,30 +1283,30 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M2:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.609375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.38671875" customWidth="1"/>
-    <col min="7" max="7" width="12.609375" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
     <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="30.609375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.609375" customWidth="1"/>
-    <col min="13" max="13" width="9.71875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.38671875" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" customWidth="1"/>
-    <col min="16" max="16" width="36.609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.375" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
@@ -1390,12 +1390,14 @@
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="12"/>
+      <c r="M2" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -1416,12 +1418,14 @@
       <c r="J3" s="23"/>
       <c r="K3" s="20"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="M3" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="N3" s="20"/>
       <c r="O3" s="24"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>206</v>
       </c>
@@ -1451,7 +1455,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>207</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>208</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
@@ -1545,7 +1549,7 @@
       <c r="O7" s="24"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1610,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>57</v>
       </c>
@@ -1638,7 +1642,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>66</v>
       </c>
@@ -1668,7 +1672,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -1698,7 +1702,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
@@ -1724,7 +1728,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="78.349999999999994" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
@@ -1752,7 +1756,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>24</v>
       </c>
@@ -1782,7 +1786,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>57</v>
       </c>
@@ -1816,7 +1820,7 @@
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>66</v>
       </c>
@@ -1846,7 +1850,7 @@
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1876,7 +1880,7 @@
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
@@ -1902,7 +1906,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
     </row>
-    <row r="20" spans="1:16" ht="409.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
@@ -1926,7 +1930,7 @@
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>30</v>
       </c>
@@ -1952,7 +1956,7 @@
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
     </row>
-    <row r="22" spans="1:16" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +1984,7 @@
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -2006,7 +2010,7 @@
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
@@ -2028,7 +2032,7 @@
       <c r="O24" s="31"/>
       <c r="P24" s="31"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>27</v>
       </c>
@@ -2065,15 +2069,15 @@
       <selection pane="bottomLeft" activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
@@ -2096,7 +2100,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>56</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>56</v>
       </c>
@@ -2124,7 +2128,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -2138,7 +2142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
@@ -2152,7 +2156,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>65</v>
       </c>
@@ -2166,7 +2170,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>65</v>
       </c>
@@ -2180,7 +2184,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
@@ -2208,7 +2212,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -2236,7 +2240,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="45"/>
       <c r="C12" s="46"/>
@@ -2245,7 +2249,7 @@
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>21</v>
       </c>
@@ -2262,7 +2266,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>21</v>
       </c>
@@ -2279,7 +2283,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>23</v>
       </c>
@@ -2298,7 +2302,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>23</v>
       </c>
@@ -2317,7 +2321,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>23</v>
       </c>
@@ -2336,7 +2340,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>23</v>
       </c>
@@ -2355,7 +2359,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>118</v>
       </c>
@@ -2374,7 +2378,7 @@
       </c>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>118</v>
       </c>
@@ -2393,7 +2397,7 @@
       </c>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>118</v>
       </c>
@@ -2412,7 +2416,7 @@
       </c>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>118</v>
       </c>
@@ -2431,7 +2435,7 @@
       </c>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>118</v>
       </c>
@@ -2450,7 +2454,7 @@
       </c>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>118</v>
       </c>
@@ -2469,7 +2473,7 @@
       </c>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>118</v>
       </c>
@@ -2488,7 +2492,7 @@
       </c>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>118</v>
       </c>
@@ -2507,7 +2511,7 @@
       </c>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>118</v>
       </c>
@@ -2526,7 +2530,7 @@
       </c>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>118</v>
       </c>
@@ -2545,7 +2549,7 @@
       </c>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>118</v>
       </c>
@@ -2564,7 +2568,7 @@
       </c>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>118</v>
       </c>
@@ -2583,7 +2587,7 @@
       </c>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>118</v>
       </c>
@@ -2602,7 +2606,7 @@
       </c>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>118</v>
       </c>
@@ -2621,7 +2625,7 @@
       </c>
       <c r="G32" s="31"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>118</v>
       </c>
@@ -2640,7 +2644,7 @@
       </c>
       <c r="G33" s="31"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>118</v>
       </c>
@@ -2659,7 +2663,7 @@
       </c>
       <c r="G34" s="31"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>118</v>
       </c>
@@ -2678,7 +2682,7 @@
       </c>
       <c r="G35" s="31"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>118</v>
       </c>
@@ -2697,7 +2701,7 @@
       </c>
       <c r="G36" s="31"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>118</v>
       </c>
@@ -2716,7 +2720,7 @@
       </c>
       <c r="G37" s="31"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>118</v>
       </c>
@@ -2735,7 +2739,7 @@
       </c>
       <c r="G38" s="31"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>118</v>
       </c>
@@ -2754,7 +2758,7 @@
       </c>
       <c r="G39" s="31"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>118</v>
       </c>
@@ -2773,7 +2777,7 @@
       </c>
       <c r="G40" s="31"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>118</v>
       </c>
@@ -2792,7 +2796,7 @@
       </c>
       <c r="G41" s="31"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>118</v>
       </c>
@@ -2811,7 +2815,7 @@
       </c>
       <c r="G42" s="31"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>118</v>
       </c>
@@ -2830,7 +2834,7 @@
       </c>
       <c r="G43" s="31"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>118</v>
       </c>
@@ -2849,7 +2853,7 @@
       </c>
       <c r="G44" s="31"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>118</v>
       </c>
@@ -2868,7 +2872,7 @@
       </c>
       <c r="G45" s="31"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>118</v>
       </c>
@@ -2887,7 +2891,7 @@
       </c>
       <c r="G46" s="31"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>118</v>
       </c>
@@ -2906,7 +2910,7 @@
       </c>
       <c r="G47" s="31"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>118</v>
       </c>
@@ -2925,7 +2929,7 @@
       </c>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>118</v>
       </c>
@@ -2944,7 +2948,7 @@
       </c>
       <c r="G49" s="31"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>118</v>
       </c>
@@ -2963,7 +2967,7 @@
       </c>
       <c r="G50" s="31"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>118</v>
       </c>
@@ -2982,7 +2986,7 @@
       </c>
       <c r="G51" s="31"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>118</v>
       </c>
@@ -3001,7 +3005,7 @@
       </c>
       <c r="G52" s="31"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>118</v>
       </c>
@@ -3020,7 +3024,7 @@
       </c>
       <c r="G53" s="31"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>118</v>
       </c>
@@ -3039,7 +3043,7 @@
       </c>
       <c r="G54" s="31"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>118</v>
       </c>
@@ -3058,7 +3062,7 @@
       </c>
       <c r="G55" s="31"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>118</v>
       </c>
@@ -3077,7 +3081,7 @@
       </c>
       <c r="G56" s="31"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>118</v>
       </c>
@@ -3096,7 +3100,7 @@
       </c>
       <c r="G57" s="31"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>118</v>
       </c>
@@ -3115,7 +3119,7 @@
       </c>
       <c r="G58" s="31"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>118</v>
       </c>
@@ -3134,7 +3138,7 @@
       </c>
       <c r="G59" s="31"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>118</v>
       </c>
@@ -3153,7 +3157,7 @@
       </c>
       <c r="G60" s="31"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>118</v>
       </c>
@@ -3172,7 +3176,7 @@
       </c>
       <c r="G61" s="31"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>118</v>
       </c>
@@ -3191,7 +3195,7 @@
       </c>
       <c r="G62" s="31"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>118</v>
       </c>
@@ -3210,7 +3214,7 @@
       </c>
       <c r="G63" s="31"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>118</v>
       </c>
@@ -3229,7 +3233,7 @@
       </c>
       <c r="G64" s="31"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>118</v>
       </c>
@@ -3248,7 +3252,7 @@
       </c>
       <c r="G65" s="31"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>118</v>
       </c>
@@ -3267,7 +3271,7 @@
       </c>
       <c r="G66" s="31"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>118</v>
       </c>
@@ -3286,7 +3290,7 @@
       </c>
       <c r="G67" s="31"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
         <v>118</v>
       </c>
@@ -3305,7 +3309,7 @@
       </c>
       <c r="G68" s="31"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>118</v>
       </c>
@@ -3324,7 +3328,7 @@
       </c>
       <c r="G69" s="31"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>118</v>
       </c>
@@ -3343,7 +3347,7 @@
       </c>
       <c r="G70" s="31"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>118</v>
       </c>
@@ -3362,7 +3366,7 @@
       </c>
       <c r="G71" s="31"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>118</v>
       </c>
@@ -3381,7 +3385,7 @@
       </c>
       <c r="G72" s="31"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>118</v>
       </c>
@@ -3400,7 +3404,7 @@
       </c>
       <c r="G73" s="31"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>118</v>
       </c>
@@ -3419,7 +3423,7 @@
       </c>
       <c r="G74" s="31"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>118</v>
       </c>
@@ -3438,7 +3442,7 @@
       </c>
       <c r="G75" s="31"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>118</v>
       </c>
@@ -3457,7 +3461,7 @@
       </c>
       <c r="G76" s="31"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>118</v>
       </c>
@@ -3476,7 +3480,7 @@
       </c>
       <c r="G77" s="31"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>118</v>
       </c>
@@ -3495,7 +3499,7 @@
       </c>
       <c r="G78" s="31"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>185</v>
       </c>
@@ -3514,7 +3518,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>185</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>185</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>185</v>
       </c>
@@ -3571,7 +3575,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
         <v>185</v>
       </c>
@@ -3590,7 +3594,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
         <v>185</v>
       </c>
@@ -3609,7 +3613,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
         <v>185</v>
       </c>
@@ -3628,7 +3632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>185</v>
       </c>
@@ -3647,7 +3651,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>185</v>
       </c>
@@ -3666,7 +3670,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>185</v>
       </c>
@@ -3685,7 +3689,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>185</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>185</v>
       </c>
@@ -3723,7 +3727,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>185</v>
       </c>
@@ -3742,7 +3746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
         <v>185</v>
       </c>
@@ -3761,7 +3765,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>185</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
         <v>185</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>185</v>
       </c>
@@ -3818,7 +3822,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
         <v>185</v>
       </c>
@@ -3837,7 +3841,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
         <v>185</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
         <v>185</v>
       </c>
@@ -3875,7 +3879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
         <v>185</v>
       </c>
@@ -3894,7 +3898,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
         <v>185</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>185</v>
       </c>
@@ -3932,7 +3936,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>185</v>
       </c>
@@ -3951,7 +3955,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>185</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>185</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>185</v>
       </c>
@@ -4008,7 +4012,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>185</v>
       </c>
@@ -4027,7 +4031,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>185</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>185</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>185</v>
       </c>
@@ -4084,7 +4088,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
         <v>185</v>
       </c>
@@ -4103,7 +4107,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="31" t="s">
         <v>185</v>
       </c>
@@ -4122,7 +4126,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
         <v>185</v>
       </c>
@@ -4141,7 +4145,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
         <v>185</v>
       </c>
@@ -4160,7 +4164,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>185</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
         <v>185</v>
       </c>
@@ -4198,7 +4202,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
         <v>185</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
         <v>185</v>
       </c>
@@ -4236,7 +4240,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="31" t="s">
         <v>185</v>
       </c>
@@ -4255,7 +4259,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
         <v>185</v>
       </c>
@@ -4274,7 +4278,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="31" t="s">
         <v>185</v>
       </c>
@@ -4293,7 +4297,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
         <v>185</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="31" t="s">
         <v>185</v>
       </c>
@@ -4331,7 +4335,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
         <v>185</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="31" t="s">
         <v>185</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
         <v>185</v>
       </c>
@@ -4388,7 +4392,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="31" t="s">
         <v>185</v>
       </c>
@@ -4407,7 +4411,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
         <v>185</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="31" t="s">
         <v>185</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="31" t="s">
         <v>185</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="31" t="s">
         <v>185</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="31" t="s">
         <v>185</v>
       </c>
@@ -4502,7 +4506,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>185</v>
       </c>
@@ -4521,7 +4525,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="31" t="s">
         <v>185</v>
       </c>
@@ -4540,7 +4544,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
         <v>185</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="31" t="s">
         <v>185</v>
       </c>
@@ -4578,7 +4582,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
         <v>185</v>
       </c>
@@ -4597,7 +4601,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="31" t="s">
         <v>185</v>
       </c>
@@ -4616,7 +4620,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
         <v>185</v>
       </c>
@@ -4652,14 +4656,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4673,7 +4677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>215</v>
       </c>
